--- a/loaded_influencer_data/adrian.ugc/adrian.ugc_video.xlsx
+++ b/loaded_influencer_data/adrian.ugc/adrian.ugc_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,25 +506,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7483754476969495830</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308800</v>
+        <v>432100</v>
       </c>
       <c r="C2" t="n">
-        <v>6394</v>
+        <v>8610</v>
       </c>
       <c r="D2" t="n">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2965</v>
+        <v>4056</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -534,19 +534,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.164831606217616</v>
+        <v>2.067114093959731</v>
       </c>
       <c r="I2" t="n">
-        <v>2.07059585492228</v>
+        <v>1.992594306873409</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09423575129533679</v>
+        <v>0.07451978708632261</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9601683937823834</v>
+        <v>0.9386716037954178</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -560,25 +560,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7455020566022507808</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>333800</v>
+        <v>336300</v>
       </c>
       <c r="C3" t="n">
         <v>10200</v>
       </c>
       <c r="D3" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1632</v>
+        <v>1639</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -587,19 +587,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.14619532654284</v>
+        <v>3.123104371097235</v>
       </c>
       <c r="I3" t="n">
-        <v>3.055721989215099</v>
+        <v>3.033006244424621</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09047333732774115</v>
+        <v>0.09009812667261374</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4889155182744158</v>
+        <v>0.4873624739815641</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -613,25 +613,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7419673443043511584</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118200</v>
+        <v>121000</v>
       </c>
       <c r="C4" t="n">
-        <v>1367</v>
+        <v>1397</v>
       </c>
       <c r="D4" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.263959390862944</v>
+        <v>1.261157024793389</v>
       </c>
       <c r="I4" t="n">
-        <v>1.156514382402707</v>
+        <v>1.154545454545455</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1074450084602369</v>
+        <v>0.1066115702479339</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3045685279187817</v>
+        <v>0.3033057851239669</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -666,1832 +666,1833 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adrian.ugc/video/7489833617791700246</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>311</v>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Round lab sunscreen to leave your skin glowy and hydrating with no whitecasts on. 🤍🩵💁🏼‍♂️
+Yesstyle: ADRIAN221</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>32.79742765273312</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21.22186495176849</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.57556270096463</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.823151125401929</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adrian.ugc/video/7489322488082550038</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C6" t="n">
+        <v>208</v>
+      </c>
+      <c r="D6" t="n">
+        <v>157</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Gimme purr and night donut glow before bed AKA night skincare routine 🛌✨ #koreanskincare</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>36.318407960199</v>
+      </c>
+      <c r="I6" t="n">
+        <v>20.69651741293532</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.62189054726368</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.980099502487562</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adrian.ugc/video/7488933382412373270</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1355</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7 layering with Jumiso snail mucin for that JUISSY glow to blind your enemies. Honestly 1 layer is enough. ✨💦</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>32.47232472324723</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17.71217712177122</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.76014760147601</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.690036900369003</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adrian.ugc/photo/7488564280241949974</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4854</v>
+      </c>
+      <c r="C8" t="n">
+        <v>292</v>
+      </c>
+      <c r="D8" t="n">
+        <v>150</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>102</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Here are some products that Ive tried in March, so grateful for all those collaborations and opportunity to try all these products as well. Ta xoo</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9.105892047795633</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.015657189946436</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.090234857849197</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.101359703337454</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adrian.ugc/video/7488192803697069334</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1695</v>
+      </c>
+      <c r="C9" t="n">
+        <v>258</v>
+      </c>
+      <c r="D9" t="n">
+        <v>207</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dr jart sunstick to protect from nasty UVs and provide that matty, lightweight glow with no unwanted resediue! Also my first sun stick hehe 💚 I received this product for free from Dr. Jart+ and Picky</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>27.43362831858407</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.2212389380531</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12.21238938053097</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.952802359882006</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adrian.ugc/video/7487822844039154966</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2633</v>
+      </c>
+      <c r="C10" t="n">
+        <v>268</v>
+      </c>
+      <c r="D10" t="n">
+        <v>172</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>89</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>What I/you can pair with reedle shot. My recent favourite is retinal, honestly slay. 💁🏼‍♂️ #reedleshot #vtcosmetics</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>16.71097607292062</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.17850360805165</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.532472464868971</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.380174705658944</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7486607278750240023</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B11" t="n">
         <v>738</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
         <v>175</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" t="n">
         <v>152</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>43</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>It was not as scary as people say 💉💉
 The glow was just insane. New day new experience 🙋🏻‍♂️✨ #fyp #foryou</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H11" t="n">
         <v>44.3089430894309</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I11" t="n">
         <v>23.71273712737128</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>20.59620596205962</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L11" t="n">
         <v>5.826558265582656</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7486352825845484802</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>1150</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>230</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>188</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>53</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Mochi like textured cica mask to get rid of the black heads? Yasssss please 🤌🏻🍃 #vtcosmetics #centellaasiatica</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H12" t="n">
         <v>36.34782608695652</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I12" t="n">
         <v>20</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>16.34782608695652</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L12" t="n">
         <v>4.608695652173913</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7486145273123720470</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B13" t="n">
         <v>1353</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13" t="n">
         <v>226</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D13" t="n">
         <v>176</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>50</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Ever tried nude mask from mediheal?
 If not you missing out still
 Collagen was great but the NMF yas please bby girl 🩵</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H13" t="n">
         <v>29.71175166297117</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I13" t="n">
         <v>16.70362158167036</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>13.00813008130081</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L13" t="n">
         <v>3.695491500369549</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7485610679886449942</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B14" t="n">
         <v>1241</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>249</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>183</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>57</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Eqqualberry toner, finally got to swim in swimming pool toner 🩵🤌🏻 #eqqualberry #swimmingpooltoner</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>34.81063658340048</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>20.06446414182111</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>14.74617244157937</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L14" t="n">
         <v>4.593070104754231</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7485237067325164822</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B15" t="n">
         <v>1437</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>238</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>170</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>59</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Did you apply your daily spf today? DID YOU THO??? 🦖✨ @anua_global
 #skintok #spf #koreanskincare #koreanspf</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>28.39248434237996</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>16.56228253305498</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>11.83020180932498</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L15" t="n">
         <v>4.105775922059847</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7484932524821450007</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>1389</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>224</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>205</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>56</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Dr G creams comparison 💙💚
 What team are you? Soothing or moisturising? 🤭 Soothing for me with that combowombo skin.</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>30.88552915766738</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>16.12670986321094</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>14.75881929445644</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L16" t="n">
         <v>4.031677465802735</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7484281051225869590</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B17" t="n">
         <v>1279</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>238</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>221</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>61</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>How many times did i say honestly and obviously? 😭😭 Anyways Pr unboxing from @miguhara_global and</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H17" t="n">
         <v>35.88741204065676</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I17" t="n">
         <v>18.60828772478499</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>17.27912431587178</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L17" t="n">
         <v>4.769351055512119</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7483398760215645462</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B18" t="n">
         <v>24900</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>296</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>193</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>66</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>How many times did i say honestly and obviously? 😭😭 Anyways Pr unboxing from @miguhara_global and</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>1.963855421686747</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>1.188755020080321</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.7751004016064257</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>0.2650602409638554</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7483008045769968918</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>2579</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>280</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>195</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>60</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Sold my soul for vt reedle shot 1000 mask. To answer all questions in advance.. no it did not sting.🦂</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>18.41799146956184</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>10.85692128732067</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>7.561070182241179</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>2.326483132997286</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7482350064459910422</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>3296</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>443</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>363</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>68</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Sold my soul for vt reedle shot 1000 mask. To answer all questions in advance.. no it did not sting.🦂</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>24.45388349514563</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>13.44053398058253</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>11.01334951456311</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L20" t="n">
         <v>2.063106796116505</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7481969694979673366</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>2849</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>321</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>224</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>62</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Anua heartleaf collagen mask-
 🍃Heartleaf extract (70%): soothes and nourishes sensitive
 skin, reducing irritation</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H21" t="n">
         <v>19.12951912951913</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I21" t="n">
         <v>11.26711126711127</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>7.862407862407863</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L21" t="n">
         <v>2.176202176202176</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7481526924024597782</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B22" t="n">
         <v>1938</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>250</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>206</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>55</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Anua heartleaf collagen mask-
 🍃Heartleaf extract (70%): soothes and nourishes sensitive
 skin, reducing irritation</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>23.52941176470588</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>12.89989680082559</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>10.62951496388029</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>2.83797729618163</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7481157555457133846</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B23" t="n">
         <v>3245</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C23" t="n">
         <v>297</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>200</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>77</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Me core on retinal night, live laugh and LOVE @KSECRET GLOBAL ‘s range. #nightroutine #retinal</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H23" t="n">
         <v>15.31587057010786</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I23" t="n">
         <v>9.152542372881356</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>6.163328197226503</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L23" t="n">
         <v>2.372881355932203</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7480786006841527574</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B24" t="n">
         <v>1716</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>310</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D24" t="n">
         <v>229</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>54</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Me, my silly tiktoks and korean skincare empire muah ✨ #koreanskincare #smallcreator #kbeauty #skintok</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H24" t="n">
         <v>31.41025641025641</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I24" t="n">
         <v>18.06526806526806</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>13.34498834498835</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L24" t="n">
         <v>3.146853146853147</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7480413211934821634</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B25" t="n">
         <v>2164</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C25" t="n">
         <v>273</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>217</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>70</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Jumiso waterfull toner to save your dry a$$ skin, packed with 7 complex HA to lock that moisture and provide non sticky glow ✨</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H25" t="n">
         <v>22.64325323475046</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I25" t="n">
         <v>12.61552680221811</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>10.02772643253235</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L25" t="n">
         <v>3.234750462107209</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7479828860192689430</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B26" t="n">
         <v>1412</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C26" t="n">
         <v>258</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D26" t="n">
         <v>203</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>59</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Modeling masks? Yasss please. Spamming dr althea in good cause 🤠🤠🤠🤠 @dr.althea_official #modelingmask</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H26" t="n">
         <v>32.64872521246459</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I26" t="n">
         <v>18.27195467422096</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>14.37677053824363</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L26" t="n">
         <v>4.178470254957507</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7479139499776167190</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>1790</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>311</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>284</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>59</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>This weeks’s pr opening. Cause why not 🤠. Thank you @Eqqualberry @Jumiso Official @VT Cosmetics US</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>33.24022346368715</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>17.37430167597766</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>15.8659217877095</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L27" t="n">
         <v>3.29608938547486</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7478455146163227926</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
         <v>50900</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C28" t="n">
         <v>876</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>246</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>227</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>12 days with gentle vit c serum. Honestly who struggles with dark spots then knows its a LONG run.. live laugh love dr althea. ✨💚</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>2.204322200392927</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>1.721021611001965</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.4833005893909627</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>0.4459724950884087</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7478049966452198678</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B29" t="n">
         <v>1626</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C29" t="n">
         <v>247</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>245</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>49</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Yass pliss bby girl to gentle double cleansing and no to nose gunk 🤌🏻🤠 #blackhead #porecleansing #pores</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H29" t="n">
         <v>30.25830258302583</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I29" t="n">
         <v>15.19065190651907</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>15.06765067650677</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L29" t="n">
         <v>3.013530135301353</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7477670594918550806</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B30" t="n">
         <v>1510</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C30" t="n">
         <v>236</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D30" t="n">
         <v>210</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>52</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Bet most of you know Purito Panthenol cream, been using it daily for more than a week. And still remains in one of my top moisturisers without any downtime. Helped to keep my skin hydrated, healthy and most importantly glowy without any stickiness which I hate. If you still hesitate whether to try it then don’t.</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H30" t="n">
         <v>29.5364238410596</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I30" t="n">
         <v>15.62913907284768</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>13.90728476821192</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L30" t="n">
         <v>3.443708609271523</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/photo/7477282667281665302</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B31" t="n">
         <v>1772</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C31" t="n">
         <v>248</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>193</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>73</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>What do you struggle with? 🤨
 #kbeauty #koreanskincare #skinconcerns #kskincare #koreanskincareproducts</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H31" t="n">
         <v>24.88713318284424</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I31" t="n">
         <v>13.99548532731377</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>10.89164785553047</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L31" t="n">
         <v>4.119638826185101</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7476876508196244758</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
         <v>1931</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C32" t="n">
         <v>262</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D32" t="n">
         <v>188</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>68</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>My updated morning routine for darkspots. Honestly an endless journey… 🤌🏻😩 #kbeauty #viralskincare</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H32" t="n">
         <v>23.30398757120663</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I32" t="n">
         <v>13.56809943034697</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>9.735888140859657</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L32" t="n">
         <v>3.521491455204557</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7476602001493593366</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B33" t="n">
         <v>1716</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C33" t="n">
         <v>249</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D33" t="n">
         <v>197</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>45</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Sorry not sorry, sunscreen aint negotiable 🐎🌞 #sunscreen #koreanskincare #kbeauty #koreanskapielegnacja</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H33" t="n">
         <v>25.99067599067599</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I33" t="n">
         <v>14.51048951048951</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>11.48018648018648</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L33" t="n">
         <v>2.622377622377623</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7476191200874204438</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B34" t="n">
         <v>2017</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C34" t="n">
         <v>252</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D34" t="n">
         <v>218</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>57</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Have you tried rice collagen mask before? Nahh? Then its your sign🙌🏻🍚 30 minutes glow with</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H34" t="n">
         <v>23.30193356470005</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I34" t="n">
         <v>12.49380267724343</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>10.80813088745662</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L34" t="n">
         <v>2.825979176995538</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7475819823532903702</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B35" t="n">
         <v>1734</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C35" t="n">
         <v>265</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D35" t="n">
         <v>249</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>60</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Abib- heartleaf teca serum. 🍃
 Wasn’t on top of my list to try but definitely jumping to the top of my favourite serums Ive tried. Calming, snooting and doesn’t leave that sticky feeling. And those capsules 💚</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>29.64244521337947</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>15.28258362168397</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>14.3598615916955</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L35" t="n">
         <v>3.460207612456748</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7475464689976184086</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>1541</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>247</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D36" t="n">
         <v>185</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>56</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Have you tried a mask that got green retinol in? Lol 😩💚 Dr althea be innovative like that #greenretinol #dralthea</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>28.03374432186892</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>16.02855288773524</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>12.00519143413368</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L36" t="n">
         <v>3.6340038935756</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7475075507868929302</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>3127</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>509</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>301</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>85</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Korean skincare happiness duhhhh 🐎❤️ all that and still no anua azealic acid 😭😭😭😭😭😭😭</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H37" t="n">
         <v>25.90342181004157</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>16.27758234729773</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>9.625839462743844</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L37" t="n">
         <v>2.718260313399424</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7474692564462013719</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>1502</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>274</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>237</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>46</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Whats your favourite mixsoon product? 🤫🐻
 #mixsoon #yesstyle #koreanskincare #skincareroutine</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>34.02130492676431</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>18.24234354194408</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>15.77896138482024</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L38" t="n">
         <v>3.062583222370173</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7474322027621584150</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>2741</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>309</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>257</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>60</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Yes done it over pimple patch again, also Wish more people knew about @miguhara_global 🥲🌸
 💚Yesstyle:ADRIAN221</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>20.64939802991609</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>11.2732579350602</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>9.376140094855892</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>2.188982123312659</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7473603274847964438</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>1605</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>269</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>233</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>57</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Glowy viral cream by purito, have you tried that hame changer? 💚✨ #glow #purito #panthenolcream</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>31.27725856697819</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>16.7601246105919</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>14.51713395638629</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>3.551401869158879</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7473224055559163158</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>1485</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>269</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>220</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>52</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>3x barrier slay 🩵🛡️ + yes i will be spamming that sound 💃🏻#iunikbetaglucan #glowingskin #skinsolution</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>32.92929292929293</v>
-      </c>
-      <c r="I35" t="n">
-        <v>18.11447811447811</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>14.81481481481481</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.501683501683502</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@adrian.ugc/video/7472844443054345494</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1669</v>
-      </c>
-      <c r="C36" t="n">
-        <v>293</v>
-      </c>
-      <c r="D36" t="n">
-        <v>274</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>65</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Yes its a pimple patch, avoiding a catastrophics in advance, now back to the collagen rice goodie that provided amazing healthy glow, cooling skin effects it also made my skin smooth. Another anua slay ✨🌾</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>33.97243858597963</v>
-      </c>
-      <c r="I36" t="n">
-        <v>17.55542240862792</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>16.41701617735171</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.894547633313361</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@adrian.ugc/photo/7472505634831731991</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>20500</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1570</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1502</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>305</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Rules in the captions? Goodluck 🤍 #ukgiveaway #koreanskincare #kbeauty #fyp #giveaway</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>14.98536585365854</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7.658536585365853</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>7.326829268292682</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.48780487804878</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@adrian.ugc/video/7472269727025483030</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3173</v>
-      </c>
-      <c r="C38" t="n">
-        <v>224</v>
-      </c>
-      <c r="D38" t="n">
-        <v>165</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>43</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Into my food skin-care recently, jelly then rice porrage. 🥲My favourite product from @Beauty of Joseon</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>12.25969114402773</v>
-      </c>
-      <c r="I38" t="n">
-        <v>7.059565080365584</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>5.200126063662149</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.355184368105893</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@adrian.ugc/video/7471964989855747350</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>6431</v>
-      </c>
-      <c r="C39" t="n">
-        <v>299</v>
-      </c>
-      <c r="D39" t="n">
-        <v>191</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>59</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Aka glow in a tube by @Medicube Global ✨🌸 #glowyskin #glasskin #koreanskincare #kbeauty #collagencream</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>7.619343803452029</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.649354688228891</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.969989115223138</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.9174311926605505</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@adrian.ugc/video/7471601761803881750</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1539</v>
-      </c>
-      <c r="C40" t="n">
-        <v>296</v>
-      </c>
-      <c r="D40" t="n">
-        <v>234</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>41</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Dr althea and anua be my Valentine this year. Still waiting for that box of chocolate tho 🤠 #skincare #skintok</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>34.43794671864847</v>
-      </c>
-      <c r="I40" t="n">
-        <v>19.23326835607537</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>15.2046783625731</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.664067576348278</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@adrian.ugc/video/7471142856405650710</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1483</v>
-      </c>
-      <c r="C41" t="n">
-        <v>248</v>
-      </c>
-      <c r="D41" t="n">
-        <v>226</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2501,483 +2502,532 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>3x barrier slay 🩵🛡️ + yes i will be spamming that sound 💃🏻#iunikbetaglucan #glowingskin #skinsolution</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>32.92929292929293</v>
+      </c>
+      <c r="I41" t="n">
+        <v>18.11447811447811</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>14.81481481481481</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.501683501683502</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adrian.ugc/video/7472844443054345494</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1669</v>
+      </c>
+      <c r="C42" t="n">
+        <v>293</v>
+      </c>
+      <c r="D42" t="n">
+        <v>274</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>65</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Yes its a pimple patch, avoiding a catastrophics in advance, now back to the collagen rice goodie that provided amazing healthy glow, cooling skin effects it also made my skin smooth. Another anua slay ✨🌾</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>33.97243858597963</v>
+      </c>
+      <c r="I42" t="n">
+        <v>17.55542240862792</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>16.41701617735171</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.894547633313361</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adrian.ugc/photo/7472505634831731991</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>20500</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1570</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1502</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>305</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Rules in the captions? Goodluck 🤍 #ukgiveaway #koreanskincare #kbeauty #fyp #giveaway</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>14.98536585365854</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.658536585365853</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>7.326829268292682</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.48780487804878</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adrian.ugc/video/7472269727025483030</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3173</v>
+      </c>
+      <c r="C44" t="n">
+        <v>224</v>
+      </c>
+      <c r="D44" t="n">
+        <v>165</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>43</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Into my food skin-care recently, jelly then rice porrage. 🥲My favourite product from @Beauty of Joseon</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>12.25969114402773</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7.059565080365584</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5.200126063662149</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.355184368105893</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adrian.ugc/video/7471964989855747350</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>6431</v>
+      </c>
+      <c r="C45" t="n">
+        <v>299</v>
+      </c>
+      <c r="D45" t="n">
+        <v>191</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>59</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Aka glow in a tube by @Medicube Global ✨🌸 #glowyskin #glasskin #koreanskincare #kbeauty #collagencream</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7.619343803452029</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.649354688228891</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.969989115223138</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.9174311926605505</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adrian.ugc/video/7471601761803881750</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1539</v>
+      </c>
+      <c r="C46" t="n">
+        <v>296</v>
+      </c>
+      <c r="D46" t="n">
+        <v>234</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>41</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Dr althea and anua be my Valentine this year. Still waiting for that box of chocolate tho 🤠 #skincare #skintok</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>34.43794671864847</v>
+      </c>
+      <c r="I46" t="n">
+        <v>19.23326835607537</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>15.2046783625731</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.664067576348278</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@adrian.ugc/video/7471142856405650710</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1483</v>
+      </c>
+      <c r="C47" t="n">
+        <v>248</v>
+      </c>
+      <c r="D47" t="n">
+        <v>226</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>52</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Vt spams, how about that 🩶💉
 No it was not in the guidelines, just showing some love to my graily products xoxo</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>31.96223870532704</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>16.72285906945381</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>15.23937963587323</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L47" t="n">
         <v>3.506405933917734</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7470885833495629078</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B48" t="n">
         <v>1430</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C48" t="n">
         <v>283</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D48" t="n">
         <v>269</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>45</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>2 chopppa and 2k hit! Dont unfollow cause I already printed it out and put it on my frigde… and yeah i demolished that cheesecake. :)</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H48" t="n">
         <v>38.6013986013986</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I48" t="n">
         <v>19.79020979020979</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>18.81118881118881</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L48" t="n">
         <v>3.146853146853147</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7470596473831410966</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>3578</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>314</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>211</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>54</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Night reset with Skin1004 💤🕯️🌙
 Tea-Trica line smells like forest. 💚 #koreanskincare #skincare #kskincare</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H49" t="n">
         <v>14.67300167691448</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I49" t="n">
         <v>8.775852431525992</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>5.897149245388485</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L49" t="n">
         <v>1.509223029625489</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7470223121988078881</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B50" t="n">
         <v>3798</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C50" t="n">
         <v>403</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D50" t="n">
         <v>211</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>56</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Still on that dove soap, huh?? #koreanskincare #skincare #kskincare #glowyskin #fyp #skintok</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H50" t="n">
         <v>16.16640337019484</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I50" t="n">
         <v>10.61084781463928</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L50" t="n">
         <v>1.474460242232754</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@adrian.ugc/video/7469905957108108577</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B51" t="n">
         <v>2043</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>243</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D51" t="n">
         <v>206</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>49</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Sorry but “2 steps ahead” sound wasnt ready for my 60 seconds video, been shortened to 23 💃🏻 But it was ready for the 19 days glow up. Live laugh love</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H51" t="n">
         <v>21.97748409202154</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I51" t="n">
         <v>11.8942731277533</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>10.08321096426823</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L51" t="n">
         <v>2.398433675966716</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@adrian.ugc/video/7469488114499636513</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1290</v>
-      </c>
-      <c r="C46" t="n">
-        <v>227</v>
-      </c>
-      <c r="D46" t="n">
-        <v>191</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>46</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Best smelling pads out there ✨💛 yeah niacinamide is not easy to say.. #koreanskincare #tonerpads</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>32.4031007751938</v>
-      </c>
-      <c r="I46" t="n">
-        <v>17.5968992248062</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>14.8062015503876</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.565891472868217</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@adrian.ugc/video/7469121384891960609</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2866</v>
-      </c>
-      <c r="C47" t="n">
-        <v>362</v>
-      </c>
-      <c r="D47" t="n">
-        <v>195</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>45</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>A morning routine without water spillage on your tshirt can only mean one thing… 🤭 also live laugh love anua TXA 😩😩</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>19.4347522679693</v>
-      </c>
-      <c r="I47" t="n">
-        <v>12.63084438241452</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>6.80390788555478</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.57013258897418</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@adrian.ugc/video/7468761205042187552</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1161</v>
-      </c>
-      <c r="C48" t="n">
-        <v>202</v>
-      </c>
-      <c r="D48" t="n">
-        <v>149</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>35</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>my daily core BUT been better recently 😼 #korenskincare #skintok #kskincare #kbeauty #koreanproducts #skincare</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>30.23255813953488</v>
-      </c>
-      <c r="I48" t="n">
-        <v>17.39879414298019</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>12.8337639965547</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.014642549526271</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@adrian.ugc/photo/7468423495509085473</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>3720</v>
-      </c>
-      <c r="C49" t="n">
-        <v>288</v>
-      </c>
-      <c r="D49" t="n">
-        <v>181</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>74</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Any goodies spotted???? 🥹😩 Its my little rating, there are many products i got on my wish list to try, its insane.</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>12.60752688172043</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7.741935483870968</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.865591397849462</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.989247311827957</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@adrian.ugc/video/7468005293864013088</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1750</v>
-      </c>
-      <c r="C50" t="n">
-        <v>220</v>
-      </c>
-      <c r="D50" t="n">
-        <v>180</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>49</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>✨THOSE✨ toner pads.
-Numbuzin toner pads no 5. For that glowy skin, mild efoliation, dark spots.. Been using them and absolutely in love, strong 9/10 💛✨</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>22.85714285714286</v>
-      </c>
-      <c r="I50" t="n">
-        <v>12.57142857142857</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>10.28571428571428</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
         </is>
       </c>
     </row>
